--- a/wireframes/Example Live View.xlsx
+++ b/wireframes/Example Live View.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/389717b1d175df99/Development/Projects/ADS-B-BaseStationReader/wireframes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{D66D2F21-3975-4489-8753-E5AC51D47DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{369E0740-2DDD-47B0-B187-E389FC8E29A2}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{D66D2F21-3975-4489-8753-E5AC51D47DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC3A32C0-5A5B-416B-8D86-6871EC071814}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{5E95568F-2D46-475A-8BA4-C753FD79B547}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Address</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Last Seen</t>
+  </si>
+  <si>
+    <t>Messages</t>
   </si>
 </sst>
 </file>
@@ -262,9 +265,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -298,6 +300,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,904 +603,1020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D10321-FDF3-4C8C-9A95-4BEC0161FF4E}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.06640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="9.06640625" style="6"/>
-    <col min="10" max="10" width="17.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.06640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.06640625" style="5"/>
+    <col min="10" max="10" width="17.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>7702</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>32600</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>411</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>212</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>51.21602</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>-1.0944</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>1280</v>
       </c>
-      <c r="J2" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="J2" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K2" s="6">
         <v>45184.356938923615</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="L2" s="5">
+        <f ca="1">INT(RAND() * 10 + 1.5)</f>
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2241</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>37000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>430</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>159</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>51.118560000000002</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>-0.61619999999999997</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K3" s="6">
         <v>45184.357048611113</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="5" t="s">
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L29" ca="1" si="0">INT(RAND() * 10 + 1.5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1057</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>36000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>465</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>353</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>51.632480000000001</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>-1.3428500000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K4" s="6">
         <v>45184.357074178239</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
+      <c r="L4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>7653</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>14525</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>267</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>119</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>51.856960000000001</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>-0.92154999999999998</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>-768</v>
       </c>
-      <c r="J5" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="J5" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K5" s="6">
         <v>45184.357073576386</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="5" t="s">
+      <c r="L5" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>5244</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>35575</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>438</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>123</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>51.87865</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>-0.78025999999999995</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>1600</v>
       </c>
-      <c r="J6" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="J6" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K6" s="6">
         <v>45184.35707421296</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
+      <c r="L6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>2012</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>30200</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>428</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>154</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>51.984189999999998</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>-1.64253</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>1024</v>
       </c>
-      <c r="J7" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="J7" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K7" s="6">
         <v>45184.357074178239</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
+      <c r="L7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
         <v>398567</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>666</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>31875</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>451</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>322</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>52.203960000000002</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>-0.65627999999999997</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>-2816</v>
       </c>
-      <c r="J8" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="J8" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K8" s="6">
         <v>45184.357072951389</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+      <c r="L8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2257</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>36000</v>
       </c>
-      <c r="J9" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K9" s="6">
         <v>45184.356886574074</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
+      <c r="L9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>121</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>21575</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>335</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>284</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>51.546689999999998</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>-1.30653</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>-2112</v>
       </c>
-      <c r="J10" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="J10" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K10" s="6">
         <v>45184.357069791666</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+      <c r="L10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>537</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>16225</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>364</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>217</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>51.705849999999998</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>-0.49643999999999999</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>1856</v>
       </c>
-      <c r="J11" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="J11" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K11" s="6">
         <v>45184.356921296298</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
+      <c r="L11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>6346</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>36000</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>472</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>120</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>51.705959999999997</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>-2.40326</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="J12" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K12" s="6">
         <v>45184.357074201391</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="L12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>7342</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>9025</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>247</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>255</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>51.607640000000004</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>-2.1630400000000001</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>-1984</v>
       </c>
-      <c r="J13" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="J13" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K13" s="6">
         <v>45184.357068506943</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
+      <c r="L13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>515</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>35025</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>51.514890000000001</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>-2.8376000000000001</v>
       </c>
-      <c r="J14" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="J14" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K14" s="6">
         <v>45184.356608796297</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
+      <c r="L14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>7575</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>32775</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>428</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>158</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>51.015250000000002</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>-0.71609</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>1472</v>
       </c>
-      <c r="J15" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="J15" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K15" s="6">
         <v>45184.357068541663</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
+      <c r="L15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>6331</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>35000</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>449</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>121</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>51.19858</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>-1.0218799999999999</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>0</v>
       </c>
-      <c r="J16" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="J16" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K16" s="6">
         <v>45184.357072939812</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
+      <c r="L16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>3110</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>27675</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>451</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>317</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>-2048</v>
       </c>
-      <c r="J17" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="J17" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K17" s="6">
         <v>45184.356759259259</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
+      <c r="L17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>2177</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>28975</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>445</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>93</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>51.42747</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>-1.0988599999999999</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>1408</v>
       </c>
-      <c r="J18" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K18" s="7">
+      <c r="J18" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K18" s="6">
         <v>45184.357074224536</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+      <c r="L18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>530</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>31875</v>
       </c>
-      <c r="J19" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K19" s="7">
+      <c r="J19" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K19" s="6">
         <v>45184.357048611113</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+      <c r="L19" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>6377</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>37000</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>420</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>153</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>51.656829999999999</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>-0.89690999999999999</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="J20" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="J20" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K20" s="6">
         <v>45184.357074201391</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
+      <c r="L20" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>7000</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>1825</v>
       </c>
-      <c r="J21" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="J21" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K21" s="6">
         <v>45184.357072916668</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+      <c r="L21" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>2274</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>37000</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>426</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>159</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>52.142940000000003</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>-1.23299</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>64</v>
       </c>
-      <c r="J22" s="7">
-        <v>45184.356574074074</v>
-      </c>
-      <c r="K22" s="7">
+      <c r="J22" s="6">
+        <v>45184.356574074074</v>
+      </c>
+      <c r="K22" s="6">
         <v>45184.357048611113</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
+      <c r="L22" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
         <v>407914</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>7325</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>18825</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>367</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>145</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>51.815060000000003</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>-1.2492399999999999</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>2240</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>45184.356585648151</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <v>45184.357072303239</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
+      <c r="L23" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
         <v>406890</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>6012</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>22275</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>368</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>96</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>51.398299999999999</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>-2.3336299999999999</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>-2240</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>45184.35659722222</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <v>45184.356851851851</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
+      <c r="L24" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>5667</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>10425</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>293</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>90</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>51.312899999999999</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>-1.12801</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>-1024</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>45184.356608796297</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <v>45184.357048611113</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
+      <c r="L25" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>45184.35664351852</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>45184.356620370374</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+      <c r="L26" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>7645</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>15800</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>45184.356666666667</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <v>45184.356863425928</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+      <c r="L27" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>512</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>26700</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>45184.356712962966</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <v>45184.357048611113</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
+      <c r="L28" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>5734</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>36000</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>456</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>321</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>0</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>45184.356747685182</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <v>45184.357072326391</v>
+      </c>
+      <c r="L29" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
